--- a/theo/outputs/XLE/correlations.xlsx
+++ b/theo/outputs/XLE/correlations.xlsx
@@ -532,52 +532,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.81364948506655</v>
+        <v>0.1943733561625548</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08342261253823323</v>
+        <v>0.09630846703230672</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1065315088207544</v>
+        <v>0.1832856665447328</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6060763121132355</v>
+        <v>0.5654660678384112</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.8378179650071893</v>
+        <v>0.06766444556443779</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.03900439158345486</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.03903339752627656</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.3347239170163679</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.3317308112191326</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.03900439158345486</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.03903339752627656</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.3347239170163679</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.3317308112191326</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.05942391687459775</v>
+        <v>-0.1434389717156813</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.0739577429103636</v>
+        <v>-0.1550898553024149</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.08293271414155323</v>
+        <v>-0.1549861330312267</v>
       </c>
     </row>
     <row r="3">
@@ -587,55 +587,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.81364948506655</v>
+        <v>0.1943733561625548</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.145135095128225</v>
+        <v>-0.1881324928682831</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.2254182062328378</v>
+        <v>-0.01924494760824327</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.8965886917760298</v>
+        <v>0.002515352217582833</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7944472422950926</v>
+        <v>0.4930253807537733</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05086736036433592</v>
+        <v>0.09207088576994855</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05085626812506253</v>
+        <v>0.09176721663826777</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1543577420451838</v>
+        <v>0.4976820150611485</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1514699655870215</v>
+        <v>0.4949830998541839</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.06391780122695481</v>
+        <v>-0.07833242201069522</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.06387377182102309</v>
+        <v>-0.07861389397870046</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1343745677431482</v>
+        <v>0.4667785324488534</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1314264541075213</v>
+        <v>0.4640506835060406</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1243466933151483</v>
+        <v>-0.1491287784350519</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.144999567334247</v>
+        <v>-0.2757313249459306</v>
       </c>
       <c r="R3" t="n">
-        <v>0.08371090259111397</v>
+        <v>-0.2282366217297375</v>
       </c>
     </row>
     <row r="4">
@@ -645,55 +645,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08342261253823323</v>
+        <v>0.09630846703230672</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.145135095128225</v>
+        <v>-0.1881324928682831</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7311370682056839</v>
+        <v>0.5397475550277293</v>
       </c>
       <c r="F4" t="n">
-        <v>0.120047865316206</v>
+        <v>0.06144412848850972</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.04721912462364202</v>
+        <v>-0.118236806878215</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0858811889768662</v>
+        <v>-0.007687154283783823</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.08542038569447827</v>
+        <v>-0.007354362749807775</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1187843366886131</v>
+        <v>-0.04260499670135672</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.1157989976916509</v>
+        <v>-0.04291514047317906</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01327111248337664</v>
+        <v>0.09993435644479148</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01184706874126569</v>
+        <v>0.1006578354965322</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.1234156758769617</v>
+        <v>-0.0275902008198723</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.1202710080448487</v>
+        <v>-0.02866603987824556</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3603219624554981</v>
+        <v>0.4805186717282974</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.280223623358801</v>
+        <v>0.3146433789212585</v>
       </c>
       <c r="R4" t="n">
-        <v>0.9484596588276909</v>
+        <v>0.8119654233336379</v>
       </c>
     </row>
     <row r="5">
@@ -703,55 +703,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1065315088207544</v>
+        <v>0.1832856665447328</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2254182062328378</v>
+        <v>-0.01924494760824327</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7311370682056839</v>
+        <v>0.5397475550277293</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2463878643571651</v>
+        <v>0.3444083820250461</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1755623470748917</v>
+        <v>-0.2228292663602257</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.07610673696868818</v>
+        <v>0.1345966793028748</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.07542991841155572</v>
+        <v>0.1345008890479412</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.04052226721051069</v>
+        <v>0.2031120183560552</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.04106046215530793</v>
+        <v>0.2013464956469249</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05329307970608078</v>
+        <v>0.1048531777395024</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05204038429961724</v>
+        <v>0.1056492558020952</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.03818583817582815</v>
+        <v>0.2152523721415042</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.03845184227154824</v>
+        <v>0.2130322055654686</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.3729590622237404</v>
+        <v>-0.4789103859815887</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.276993163075869</v>
+        <v>-0.3192686552368728</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6326065076745643</v>
+        <v>0.2441500928342071</v>
       </c>
     </row>
     <row r="6">
@@ -761,55 +761,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6060763121132355</v>
+        <v>0.5654660678384112</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.8965886917760298</v>
+        <v>0.002515352217582833</v>
       </c>
       <c r="D6" t="n">
-        <v>0.120047865316206</v>
+        <v>0.06144412848850972</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2463878643571651</v>
+        <v>0.3444083820250461</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.7125446195693942</v>
+        <v>-0.6469914148141179</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.03568980690684907</v>
+        <v>0.1186270870670009</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.03613796276230393</v>
+        <v>0.118992705634955</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.1379851151712524</v>
+        <v>0.6475049315724277</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.1409978309312717</v>
+        <v>0.6457112186943333</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05401108028633362</v>
+        <v>0.1313772830190468</v>
       </c>
       <c r="M6" t="n">
-        <v>0.05328539815585655</v>
+        <v>0.1323737420329452</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.1225037330819913</v>
+        <v>0.6497065822872303</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.1253690864555329</v>
+        <v>0.6480425638457007</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.1736236287571326</v>
+        <v>-0.2947176280893655</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.1906880017296592</v>
+        <v>-0.387283745104933</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.1283783837686706</v>
+        <v>-0.3794479487454683</v>
       </c>
     </row>
     <row r="7">
@@ -819,55 +819,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.8378179650071893</v>
+        <v>0.06766444556443779</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7944472422950926</v>
+        <v>0.4930253807537733</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.04721912462364202</v>
+        <v>-0.118236806878215</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.1755623470748917</v>
+        <v>-0.2228292663602257</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.7125446195693942</v>
+        <v>-0.6469914148141179</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.05563146666189778</v>
+        <v>-0.09078856357383243</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.05553489957798313</v>
+        <v>-0.09123742539476751</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.4774252138435003</v>
+        <v>-0.5092459024592556</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.4798142812877074</v>
+        <v>-0.5118591833089273</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.08573256441210654</v>
+        <v>-0.1274110443742695</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.08607380922206526</v>
+        <v>-0.1281284110819559</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.4827471233815918</v>
+        <v>-0.5161275721152572</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.4852973875470592</v>
+        <v>-0.5188133342422805</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1758310361924029</v>
+        <v>0.1088370979994576</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2237951246308284</v>
+        <v>0.139582999568941</v>
       </c>
       <c r="R7" t="n">
-        <v>0.131579400780076</v>
+        <v>0.1390795285272234</v>
       </c>
     </row>
     <row r="8">
@@ -877,55 +877,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.03900439158345486</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05086736036433592</v>
+        <v>0.09207088576994855</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0858811889768662</v>
+        <v>-0.007687154283783823</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.07610673696868818</v>
+        <v>0.1345966793028748</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.03568980690684907</v>
+        <v>0.1186270870670009</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.05563146666189778</v>
+        <v>-0.09078856357383243</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9998677192435056</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1776961495975844</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1778594798244596</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01838332978781464</v>
+        <v>-0.0963558799231128</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01877241932169961</v>
+        <v>-0.09715563336401013</v>
       </c>
       <c r="N8" t="n">
-        <v>0.164691426934996</v>
+        <v>0.1637864511027281</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1652840017653004</v>
+        <v>0.1635997802223307</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.03026040668044333</v>
+        <v>-0.1429132788631247</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.05459993377388558</v>
+        <v>-0.07317923106918123</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.07629100620883848</v>
+        <v>-0.08632519939140904</v>
       </c>
     </row>
     <row r="9">
@@ -935,55 +935,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.03903339752627656</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05085626812506253</v>
+        <v>0.09176721663826777</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.08542038569447827</v>
+        <v>-0.007354362749807775</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.07542991841155572</v>
+        <v>0.1345008890479412</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.03613796276230393</v>
+        <v>0.118992705634955</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.05553489957798313</v>
+        <v>-0.09123742539476751</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9998677192435056</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1779856885843378</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1781599640108391</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01814662594676403</v>
+        <v>-0.09808452408801281</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01847381633338832</v>
+        <v>-0.09893247336737561</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1648518449429154</v>
+        <v>0.1637677274980351</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1655616818715602</v>
+        <v>0.1635851284195654</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.03004065622586707</v>
+        <v>-0.1425799044242275</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.0536760860182959</v>
+        <v>-0.07126740518604295</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.07503856081897804</v>
+        <v>-0.08536361077600016</v>
       </c>
     </row>
     <row r="10">
@@ -993,55 +993,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.3347239170163679</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1543577420451838</v>
+        <v>0.4976820150611485</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1187843366886131</v>
+        <v>-0.04260499670135672</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.04052226721051069</v>
+        <v>0.2031120183560552</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1379851151712524</v>
+        <v>0.6475049315724277</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.4774252138435003</v>
+        <v>-0.5092459024592556</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1776961495975844</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1779856885843378</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9999355308383882</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02839138939445308</v>
+        <v>0.04759983618345211</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02954189352736597</v>
+        <v>0.04807377060311031</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9775092980901551</v>
+        <v>0.9768569115833188</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9774704811912206</v>
+        <v>0.9768407035711548</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.1061422340971321</v>
+        <v>-0.2560234983336545</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.1542906496720679</v>
+        <v>-0.4119111335901572</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.09294398682574505</v>
+        <v>-0.3644273134855344</v>
       </c>
     </row>
     <row r="11">
@@ -1051,55 +1051,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.3317308112191326</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1514699655870215</v>
+        <v>0.4949830998541839</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1157989976916509</v>
+        <v>-0.04291514047317906</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.04106046215530793</v>
+        <v>0.2013464956469249</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1409978309312717</v>
+        <v>0.6457112186943333</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.4798142812877074</v>
+        <v>-0.5118591833089273</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1778594798244596</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1781599640108391</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9999355308383882</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02631119308004725</v>
+        <v>0.04801305889743742</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02742452766327155</v>
+        <v>0.04847104644932534</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9770124487762495</v>
+        <v>0.9768978260306015</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9775264424518051</v>
+        <v>0.9770047594541741</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.1013462259039337</v>
+        <v>-0.2545076617500157</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.1489074877222462</v>
+        <v>-0.4098594258514878</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.08888643499411758</v>
+        <v>-0.3634075779250071</v>
       </c>
     </row>
     <row r="12">
@@ -1109,55 +1109,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.03900439158345486</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.06391780122695481</v>
+        <v>-0.07833242201069522</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01327111248337664</v>
+        <v>0.09993435644479148</v>
       </c>
       <c r="E12" t="n">
-        <v>0.05329307970608078</v>
+        <v>0.1048531777395024</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05401108028633362</v>
+        <v>0.1313772830190468</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.08573256441210654</v>
+        <v>-0.1274110443742695</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01838332978781464</v>
+        <v>-0.0963558799231128</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01814662594676403</v>
+        <v>-0.09808452408801281</v>
       </c>
       <c r="J12" t="n">
-        <v>0.02839138939445308</v>
+        <v>0.04759983618345211</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02631119308004725</v>
+        <v>0.04801305889743742</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9998677192435056</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1776961495975844</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1778594798244596</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.04774522972927903</v>
+        <v>0.01633509365232564</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.02380560039217438</v>
+        <v>-0.09262784567497018</v>
       </c>
       <c r="R12" t="n">
-        <v>0.01423941505429584</v>
+        <v>-0.02191652494904516</v>
       </c>
     </row>
     <row r="13">
@@ -1167,55 +1167,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.03903339752627656</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.06387377182102309</v>
+        <v>-0.07861389397870046</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01184706874126569</v>
+        <v>0.1006578354965322</v>
       </c>
       <c r="E13" t="n">
-        <v>0.05204038429961724</v>
+        <v>0.1056492558020952</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05328539815585655</v>
+        <v>0.1323737420329452</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.08607380922206526</v>
+        <v>-0.1281284110819559</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01877241932169961</v>
+        <v>-0.09715563336401013</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01847381633338832</v>
+        <v>-0.09893247336737561</v>
       </c>
       <c r="J13" t="n">
-        <v>0.02954189352736597</v>
+        <v>0.04807377060311031</v>
       </c>
       <c r="K13" t="n">
-        <v>0.02742452766327155</v>
+        <v>0.04847104644932534</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9998677192435056</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1779856885843378</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1781599640108391</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.04832629936156562</v>
+        <v>0.01594868345615998</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.02574432881879462</v>
+        <v>-0.09329645040517713</v>
       </c>
       <c r="R13" t="n">
-        <v>0.01245764775529891</v>
+        <v>-0.02236827866226397</v>
       </c>
     </row>
     <row r="14">
@@ -1225,55 +1225,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.3347239170163679</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1343745677431482</v>
+        <v>0.4667785324488534</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1234156758769617</v>
+        <v>-0.0275902008198723</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.03818583817582815</v>
+        <v>0.2152523721415042</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1225037330819913</v>
+        <v>0.6497065822872303</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.4827471233815918</v>
+        <v>-0.5161275721152572</v>
       </c>
       <c r="H14" t="n">
-        <v>0.164691426934996</v>
+        <v>0.1637864511027281</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1648518449429154</v>
+        <v>0.1637677274980351</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9775092980901551</v>
+        <v>0.9768569115833188</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9770124487762495</v>
+        <v>0.9768978260306015</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1776961495975844</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1779856885843378</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9999355308383882</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.1141471232544586</v>
+        <v>-0.2455322362852965</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.1587185034411729</v>
+        <v>-0.4270355604990886</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.09725628004518826</v>
+        <v>-0.3332684133177319</v>
       </c>
     </row>
     <row r="15">
@@ -1283,55 +1283,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.3317308112191326</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1314264541075213</v>
+        <v>0.4640506835060406</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1202710080448487</v>
+        <v>-0.02866603987824556</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.03845184227154824</v>
+        <v>0.2130322055654686</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1253690864555329</v>
+        <v>0.6480425638457007</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.4852973875470592</v>
+        <v>-0.5188133342422805</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1652840017653004</v>
+        <v>0.1635997802223307</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1655616818715602</v>
+        <v>0.1635851284195654</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9774704811912206</v>
+        <v>0.9768407035711548</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9775264424518051</v>
+        <v>0.9770047594541741</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1778594798244596</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1781599640108391</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9999355308383882</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.1095766330943634</v>
+        <v>-0.2443962613675487</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.1535864176937986</v>
+        <v>-0.4249113730890906</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.0931030164476196</v>
+        <v>-0.3330583279473618</v>
       </c>
     </row>
     <row r="16">
@@ -1341,55 +1341,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.05942391687459775</v>
+        <v>-0.1434389717156813</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1243466933151483</v>
+        <v>-0.1491287784350519</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3603219624554981</v>
+        <v>0.4805186717282974</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.3729590622237404</v>
+        <v>-0.4789103859815887</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.1736236287571326</v>
+        <v>-0.2947176280893655</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1758310361924029</v>
+        <v>0.1088370979994576</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.03026040668044333</v>
+        <v>-0.1429132788631247</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.03004065622586707</v>
+        <v>-0.1425799044242275</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.1061422340971321</v>
+        <v>-0.2560234983336545</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.1013462259039337</v>
+        <v>-0.2545076617500157</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.04774522972927903</v>
+        <v>0.01633509365232564</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.04832629936156562</v>
+        <v>0.01594868345615998</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.1141471232544586</v>
+        <v>-0.2455322362852965</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.1095766330943634</v>
+        <v>-0.2443962613675487</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.7598484348079635</v>
+        <v>0.6607150148729571</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4249488996045038</v>
+        <v>0.5923773462592226</v>
       </c>
     </row>
     <row r="17">
@@ -1399,55 +1399,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.0739577429103636</v>
+        <v>-0.1550898553024149</v>
       </c>
       <c r="C17" t="n">
-        <v>0.144999567334247</v>
+        <v>-0.2757313249459306</v>
       </c>
       <c r="D17" t="n">
-        <v>0.280223623358801</v>
+        <v>0.3146433789212585</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.276993163075869</v>
+        <v>-0.3192686552368728</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1906880017296592</v>
+        <v>-0.387283745104933</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2237951246308284</v>
+        <v>0.139582999568941</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.05459993377388558</v>
+        <v>-0.07317923106918123</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.0536760860182959</v>
+        <v>-0.07126740518604295</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.1542906496720679</v>
+        <v>-0.4119111335901572</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.1489074877222462</v>
+        <v>-0.4098594258514878</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.02380560039217438</v>
+        <v>-0.09262784567497018</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.02574432881879462</v>
+        <v>-0.09329645040517713</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.1587185034411729</v>
+        <v>-0.4270355604990886</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.1535864176937986</v>
+        <v>-0.4249113730890906</v>
       </c>
       <c r="P17" t="n">
-        <v>0.7598484348079635</v>
+        <v>0.6607150148729571</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3393374054043992</v>
+        <v>0.5366489027841268</v>
       </c>
     </row>
     <row r="18">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.08293271414155323</v>
+        <v>-0.1549861330312267</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08371090259111397</v>
+        <v>-0.2282366217297375</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9484596588276909</v>
+        <v>0.8119654233336379</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6326065076745643</v>
+        <v>0.2441500928342071</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1283783837686706</v>
+        <v>-0.3794479487454683</v>
       </c>
       <c r="G18" t="n">
-        <v>0.131579400780076</v>
+        <v>0.1390795285272234</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.07629100620883848</v>
+        <v>-0.08632519939140904</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.07503856081897804</v>
+        <v>-0.08536361077600016</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.09294398682574505</v>
+        <v>-0.3644273134855344</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.08888643499411758</v>
+        <v>-0.3634075779250071</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01423941505429584</v>
+        <v>-0.02191652494904516</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01245764775529891</v>
+        <v>-0.02236827866226397</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.09725628004518826</v>
+        <v>-0.3332684133177319</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.0931030164476196</v>
+        <v>-0.3330583279473618</v>
       </c>
       <c r="P18" t="n">
-        <v>0.4249488996045038</v>
+        <v>0.5923773462592226</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3393374054043992</v>
+        <v>0.5366489027841268</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
@@ -1624,52 +1624,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1863684743311797</v>
+        <v>-0.3280934091174868</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5059116106770681</v>
+        <v>-0.1251831956419023</v>
       </c>
       <c r="E2" t="n">
-        <v>0.510910672846745</v>
+        <v>-0.1053404995624777</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9125292365146231</v>
+        <v>-0.2995469409078723</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1169963410590373</v>
+        <v>-0.3338957845142223</v>
       </c>
       <c r="H2" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.02763351375598092</v>
       </c>
       <c r="I2" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.0274470724393394</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.1142501881633165</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.1142162273602759</v>
       </c>
       <c r="L2" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.02763351375598092</v>
       </c>
       <c r="M2" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.0274470724393394</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.1142501881633165</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.1142162273602759</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.01675235880231756</v>
+        <v>-0.02355475735167301</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.09068383327879143</v>
+        <v>0.008138481139579148</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.1105540313008141</v>
+        <v>0.01344757081427371</v>
       </c>
     </row>
     <row r="3">
@@ -1679,55 +1679,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1863684743311797</v>
+        <v>-0.3280934091174868</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.07534010694356828</v>
+        <v>-0.05763460861940581</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.068031314596023</v>
+        <v>-0.07997711394835805</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1162448276679024</v>
+        <v>-0.2639345525178173</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8251503123414906</v>
+        <v>0.8158250566275423</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05745417635233986</v>
+        <v>0.04674275898263314</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05751797274156304</v>
+        <v>0.04673864078301064</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3165778952073075</v>
+        <v>0.2897618084291909</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3116488099819858</v>
+        <v>0.2877992548867549</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.05746864338659129</v>
+        <v>-0.05728514384864424</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.05734422810605635</v>
+        <v>-0.05726049218316159</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2971891830814635</v>
+        <v>0.2706330863646761</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2922350565058527</v>
+        <v>0.2686929912217326</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.002093105334223094</v>
+        <v>0.01696398717033156</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.01404586819640572</v>
+        <v>-0.05892675095505959</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.02135046076436313</v>
+        <v>-0.03134327191479029</v>
       </c>
     </row>
     <row r="4">
@@ -1737,55 +1737,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5059116106770681</v>
+        <v>-0.1251831956419023</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.07534010694356828</v>
+        <v>-0.05763460861940581</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7252365899043799</v>
+        <v>0.4985836905686692</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5221950356311871</v>
+        <v>0.1466362775853118</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.003088083308112179</v>
+        <v>0.0004167519276346309</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.01481616675515068</v>
+        <v>0.06091329373936673</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.01347445623176441</v>
+        <v>0.06088128999299847</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1141863988115377</v>
+        <v>-0.1041786303841871</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.1110284537229708</v>
+        <v>-0.1042128918560569</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.008499475188913396</v>
+        <v>0.05915566447794558</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.008856118381615683</v>
+        <v>0.05929886158603978</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.1171884511774632</v>
+        <v>-0.07572123639265542</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.113877634034877</v>
+        <v>-0.07674658784620389</v>
       </c>
       <c r="P4" t="n">
-        <v>0.381730299763587</v>
+        <v>0.4995049954138011</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2374686446262153</v>
+        <v>0.3642004109428346</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5977186620995151</v>
+        <v>0.8411154729296811</v>
       </c>
     </row>
     <row r="5">
@@ -1795,55 +1795,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.510910672846745</v>
+        <v>-0.1053404995624777</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.068031314596023</v>
+        <v>-0.07997711394835805</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7252365899043799</v>
+        <v>0.4985836905686692</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5727257400712382</v>
+        <v>0.3521066234714522</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.04329106323041166</v>
+        <v>-0.08382836577230901</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.0260551836417947</v>
+        <v>0.07823237562270492</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.02603182249595326</v>
+        <v>0.07679896804257642</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.04310050022836153</v>
+        <v>0.007577755072426537</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.04146675768920986</v>
+        <v>0.0049585782019277</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006301670928776885</v>
+        <v>0.0785950166915243</v>
       </c>
       <c r="M5" t="n">
-        <v>0.005858916382482694</v>
+        <v>0.07952672906435439</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.04289473635930479</v>
+        <v>0.03144434687208519</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.04105360920728408</v>
+        <v>0.02818540325897722</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.3595174584290827</v>
+        <v>-0.5019093467091682</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.2085933603775491</v>
+        <v>-0.3076344163518951</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2729643625181233</v>
+        <v>0.3160166199995459</v>
       </c>
     </row>
     <row r="6">
@@ -1853,55 +1853,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9125292365146231</v>
+        <v>-0.2995469409078723</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1162448276679024</v>
+        <v>-0.2639345525178173</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5221950356311871</v>
+        <v>0.1466362775853118</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5727257400712382</v>
+        <v>0.3521066234714522</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.07515990729908592</v>
+        <v>-0.2380766511741166</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.001222097019639046</v>
+        <v>-0.005314216691362794</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.001500437997579193</v>
+        <v>-0.005493189278526317</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.071658661735564</v>
+        <v>-0.03882264963563097</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.06835596837026831</v>
+        <v>-0.04445276453959027</v>
       </c>
       <c r="L6" t="n">
-        <v>5.893761662137863e-05</v>
+        <v>-0.007769802160535712</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.0004431091117650667</v>
+        <v>-0.00771954010287422</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.0714630892871788</v>
+        <v>-0.03924728235610799</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.06818898008088864</v>
+        <v>-0.0448423801031435</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.06625647771272436</v>
+        <v>-0.2055798506925904</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.1241394100352008</v>
+        <v>-0.2191235584061608</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.1269503986185143</v>
+        <v>-0.2213261924308439</v>
       </c>
     </row>
     <row r="7">
@@ -1911,55 +1911,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1169963410590373</v>
+        <v>-0.3338957845142223</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8251503123414906</v>
+        <v>0.8158250566275423</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.003088083308112179</v>
+        <v>0.0004167519276346309</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.04329106323041166</v>
+        <v>-0.08382836577230901</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.07515990729908592</v>
+        <v>-0.2380766511741166</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.04137289881328313</v>
+        <v>-0.05924728950580747</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.04140267268723049</v>
+        <v>-0.05941805097733136</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.2746334294809232</v>
+        <v>-0.3170941173634397</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.2793758555011018</v>
+        <v>-0.3189003783627326</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.06000405957403208</v>
+        <v>-0.07825093817489348</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.05982699731207831</v>
+        <v>-0.07816819244812569</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.2783301762509222</v>
+        <v>-0.3204134095079201</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.2830609441876975</v>
+        <v>-0.3221736061412926</v>
       </c>
       <c r="P7" t="n">
-        <v>0.05426317417733123</v>
+        <v>0.08419288575661282</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0231474037103305</v>
+        <v>0.0698611143495024</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01950943368362832</v>
+        <v>0.06989140182700694</v>
       </c>
     </row>
     <row r="8">
@@ -1969,55 +1969,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.02763351375598092</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05745417635233986</v>
+        <v>0.04674275898263314</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.01481616675515068</v>
+        <v>0.06091329373936673</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.0260551836417947</v>
+        <v>0.07823237562270492</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.001222097019639046</v>
+        <v>-0.005314216691362794</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.04137289881328313</v>
+        <v>-0.05924728950580747</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9997233943219426</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1780885540548309</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1778868245158927</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.05712301967457724</v>
+        <v>-0.05413634951976903</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.05575559682641544</v>
+        <v>-0.05322395906957401</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1583508498118242</v>
+        <v>0.1735629672491792</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1586691146152148</v>
+        <v>0.1733150445258511</v>
       </c>
       <c r="P8" t="n">
-        <v>0.009634208144115372</v>
+        <v>-0.02655653598962814</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.04275726286789743</v>
+        <v>-0.0279793345622555</v>
       </c>
       <c r="R8" t="n">
-        <v>0.02036847947948598</v>
+        <v>0.02343311610208936</v>
       </c>
     </row>
     <row r="9">
@@ -2027,55 +2027,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.0274470724393394</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05751797274156304</v>
+        <v>0.04673864078301064</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.01347445623176441</v>
+        <v>0.06088128999299847</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.02603182249595326</v>
+        <v>0.07679896804257642</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.001500437997579193</v>
+        <v>-0.005493189278526317</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04140267268723049</v>
+        <v>-0.05941805097733136</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9997233943219426</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1783377944693883</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1781980204140825</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.05612797095174527</v>
+        <v>-0.05340339784780144</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.05479620814956767</v>
+        <v>-0.05253624621299786</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1587056743767625</v>
+        <v>0.1738785584184755</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1591522229518865</v>
+        <v>0.173691277249377</v>
       </c>
       <c r="P9" t="n">
-        <v>0.01145849573103268</v>
+        <v>-0.02480989611698163</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.04590743840772638</v>
+        <v>-0.02589587844353458</v>
       </c>
       <c r="R9" t="n">
-        <v>0.02337317420084243</v>
+        <v>0.0240040129450463</v>
       </c>
     </row>
     <row r="10">
@@ -2085,55 +2085,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.1142501881633165</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3165778952073075</v>
+        <v>0.2897618084291909</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1141863988115377</v>
+        <v>-0.1041786303841871</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.04310050022836153</v>
+        <v>0.007577755072426537</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.071658661735564</v>
+        <v>-0.03882264963563097</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2746334294809232</v>
+        <v>-0.3170941173634397</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1780885540548309</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1783377944693883</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9997708728803699</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004286069850222709</v>
+        <v>0.02178165548090933</v>
       </c>
       <c r="M10" t="n">
-        <v>0.004184491722236913</v>
+        <v>0.02216146047947566</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9733400454702574</v>
+        <v>0.9725390146593206</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9728538264299138</v>
+        <v>0.9723302717309088</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.0947225892048157</v>
+        <v>-0.1115208376971788</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.06280013052412227</v>
+        <v>-0.2122601224147013</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.06910000933070952</v>
+        <v>-0.1670741027459099</v>
       </c>
     </row>
     <row r="11">
@@ -2143,55 +2143,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.1142162273602759</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3116488099819858</v>
+        <v>0.2877992548867549</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1110284537229708</v>
+        <v>-0.1042128918560569</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.04146675768920986</v>
+        <v>0.0049585782019277</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.06835596837026831</v>
+        <v>-0.04445276453959027</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2793758555011018</v>
+        <v>-0.3189003783627326</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1778868245158927</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1781980204140825</v>
       </c>
       <c r="J11" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9997708728803699</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.003410368111363741</v>
+        <v>0.02284581625835606</v>
       </c>
       <c r="M11" t="n">
-        <v>0.003251022319510548</v>
+        <v>0.02321520852364775</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9728037310005035</v>
+        <v>0.9725179402299731</v>
       </c>
       <c r="O11" t="n">
-        <v>0.973138845170242</v>
+        <v>0.972750825834478</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.09271364702631031</v>
+        <v>-0.1089374494593795</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.0600480265151005</v>
+        <v>-0.2093313124088847</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.06864538427487206</v>
+        <v>-0.1649626784236296</v>
       </c>
     </row>
     <row r="12">
@@ -2201,55 +2201,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.02763351375598092</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.05746864338659129</v>
+        <v>-0.05728514384864424</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.008499475188913396</v>
+        <v>0.05915566447794558</v>
       </c>
       <c r="E12" t="n">
-        <v>0.006301670928776885</v>
+        <v>0.0785950166915243</v>
       </c>
       <c r="F12" t="n">
-        <v>5.893761662137863e-05</v>
+        <v>-0.007769802160535712</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.06000405957403208</v>
+        <v>-0.07825093817489348</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.05712301967457724</v>
+        <v>-0.05413634951976903</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.05612797095174527</v>
+        <v>-0.05340339784780144</v>
       </c>
       <c r="J12" t="n">
-        <v>0.004286069850222709</v>
+        <v>0.02178165548090933</v>
       </c>
       <c r="K12" t="n">
-        <v>0.003410368111363741</v>
+        <v>0.02284581625835606</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9997233943219426</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1780885540548309</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1778868245158927</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.02458622991807977</v>
+        <v>-0.01861235839880449</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.001574791682833234</v>
+        <v>-0.02791724102189801</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.007005557741621795</v>
+        <v>0.03768390053094278</v>
       </c>
     </row>
     <row r="13">
@@ -2259,55 +2259,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.0274470724393394</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.05734422810605635</v>
+        <v>-0.05726049218316159</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.008856118381615683</v>
+        <v>0.05929886158603978</v>
       </c>
       <c r="E13" t="n">
-        <v>0.005858916382482694</v>
+        <v>0.07952672906435439</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0004431091117650667</v>
+        <v>-0.00771954010287422</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.05982699731207831</v>
+        <v>-0.07816819244812569</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.05575559682641544</v>
+        <v>-0.05322395906957401</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.05479620814956767</v>
+        <v>-0.05253624621299786</v>
       </c>
       <c r="J13" t="n">
-        <v>0.004184491722236913</v>
+        <v>0.02216146047947566</v>
       </c>
       <c r="K13" t="n">
-        <v>0.003251022319510548</v>
+        <v>0.02321520852364775</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9997233943219426</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1783377944693883</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1781980204140825</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.02449770104646163</v>
+        <v>-0.01947278857304941</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.001475047549576377</v>
+        <v>-0.02848387234485172</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.006349395072829069</v>
+        <v>0.03760170916633169</v>
       </c>
     </row>
     <row r="14">
@@ -2317,55 +2317,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.1142501881633165</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2971891830814635</v>
+        <v>0.2706330863646761</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1171884511774632</v>
+        <v>-0.07572123639265542</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.04289473635930479</v>
+        <v>0.03144434687208519</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.0714630892871788</v>
+        <v>-0.03924728235610799</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.2783301762509222</v>
+        <v>-0.3204134095079201</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1583508498118242</v>
+        <v>0.1735629672491792</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1587056743767625</v>
+        <v>0.1738785584184755</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9733400454702574</v>
+        <v>0.9725390146593206</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9728037310005035</v>
+        <v>0.9725179402299731</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1780885540548309</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1783377944693883</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9997708728803699</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.09929807634257969</v>
+        <v>-0.1076749012921401</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.06202249182197739</v>
+        <v>-0.2162287002573411</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.07167927480566143</v>
+        <v>-0.1386578320816283</v>
       </c>
     </row>
     <row r="15">
@@ -2375,55 +2375,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.1142162273602759</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2922350565058527</v>
+        <v>0.2686929912217326</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.113877634034877</v>
+        <v>-0.07674658784620389</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.04105360920728408</v>
+        <v>0.02818540325897722</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.06818898008088864</v>
+        <v>-0.0448423801031435</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.2830609441876975</v>
+        <v>-0.3221736061412926</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1586691146152148</v>
+        <v>0.1733150445258511</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1591522229518865</v>
+        <v>0.173691277249377</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9728538264299138</v>
+        <v>0.9723302717309088</v>
       </c>
       <c r="K15" t="n">
-        <v>0.973138845170242</v>
+        <v>0.972750825834478</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1778868245158927</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1781980204140825</v>
       </c>
       <c r="N15" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9997708728803699</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.09736386594397382</v>
+        <v>-0.1054239027499822</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.05937294999940751</v>
+        <v>-0.2132492893692336</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.07089367457370295</v>
+        <v>-0.1376064211377338</v>
       </c>
     </row>
     <row r="16">
@@ -2433,55 +2433,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.01675235880231756</v>
+        <v>-0.02355475735167301</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.002093105334223094</v>
+        <v>0.01696398717033156</v>
       </c>
       <c r="D16" t="n">
-        <v>0.381730299763587</v>
+        <v>0.4995049954138011</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.3595174584290827</v>
+        <v>-0.5019093467091682</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.06625647771272436</v>
+        <v>-0.2055798506925904</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05426317417733123</v>
+        <v>0.08419288575661282</v>
       </c>
       <c r="H16" t="n">
-        <v>0.009634208144115372</v>
+        <v>-0.02655653598962814</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01145849573103268</v>
+        <v>-0.02480989611698163</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.0947225892048157</v>
+        <v>-0.1115208376971788</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.09271364702631031</v>
+        <v>-0.1089374494593795</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.02458622991807977</v>
+        <v>-0.01861235839880449</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.02449770104646163</v>
+        <v>-0.01947278857304941</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.09929807634257969</v>
+        <v>-0.1076749012921401</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.09736386594397382</v>
+        <v>-0.1054239027499822</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.6018716459332414</v>
+        <v>0.6708392933301687</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4760369273737171</v>
+        <v>0.5234279605491989</v>
       </c>
     </row>
     <row r="17">
@@ -2491,55 +2491,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.09068383327879143</v>
+        <v>0.008138481139579148</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.01404586819640572</v>
+        <v>-0.05892675095505959</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2374686446262153</v>
+        <v>0.3642004109428346</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.2085933603775491</v>
+        <v>-0.3076344163518951</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1241394100352008</v>
+        <v>-0.2191235584061608</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0231474037103305</v>
+        <v>0.0698611143495024</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04275726286789743</v>
+        <v>-0.0279793345622555</v>
       </c>
       <c r="I17" t="n">
-        <v>0.04590743840772638</v>
+        <v>-0.02589587844353458</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.06280013052412227</v>
+        <v>-0.2122601224147013</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0600480265151005</v>
+        <v>-0.2093313124088847</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.001574791682833234</v>
+        <v>-0.02791724102189801</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.001475047549576377</v>
+        <v>-0.02848387234485172</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.06202249182197739</v>
+        <v>-0.2162287002573411</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.05937294999940751</v>
+        <v>-0.2132492893692336</v>
       </c>
       <c r="P17" t="n">
-        <v>0.6018716459332414</v>
+        <v>0.6708392933301687</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.5442187077348978</v>
+        <v>0.4802291924349997</v>
       </c>
     </row>
     <row r="18">
@@ -2549,52 +2549,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1105540313008141</v>
+        <v>0.01344757081427371</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.02135046076436313</v>
+        <v>-0.03134327191479029</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5977186620995151</v>
+        <v>0.8411154729296811</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2729643625181233</v>
+        <v>0.3160166199995459</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1269503986185143</v>
+        <v>-0.2213261924308439</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01950943368362832</v>
+        <v>0.06989140182700694</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02036847947948598</v>
+        <v>0.02343311610208936</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02337317420084243</v>
+        <v>0.0240040129450463</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.06910000933070952</v>
+        <v>-0.1670741027459099</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.06864538427487206</v>
+        <v>-0.1649626784236296</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.007005557741621795</v>
+        <v>0.03768390053094278</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.006349395072829069</v>
+        <v>0.03760170916633169</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.07167927480566143</v>
+        <v>-0.1386578320816283</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.07089367457370295</v>
+        <v>-0.1376064211377338</v>
       </c>
       <c r="P18" t="n">
-        <v>0.4760369273737171</v>
+        <v>0.5234279605491989</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.5442187077348978</v>
+        <v>0.4802291924349997</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
@@ -2716,52 +2716,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.5421497698657863</v>
+        <v>0.6052162923090986</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5670590147464997</v>
+        <v>-0.1578358643260293</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5598373462614268</v>
+        <v>-0.1502931514352879</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7692100806451468</v>
+        <v>-0.4012477434009393</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.5241907629105079</v>
+        <v>0.6089986870994867</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00063019971322716</v>
+        <v>-0.004232640698778331</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001782829608940185</v>
+        <v>-0.004416132210529955</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.0220866110558817</v>
+        <v>-0.05330386435538793</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.02382112679428315</v>
+        <v>-0.054023826714858</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00063019971322716</v>
+        <v>-0.004232640698778331</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0001782829608940185</v>
+        <v>-0.004416132210529955</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.0220866110558817</v>
+        <v>-0.05330386435538793</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.02382112679428315</v>
+        <v>-0.054023826714858</v>
       </c>
       <c r="P2" t="n">
-        <v>0.03278743538109485</v>
+        <v>-0.003594336843539836</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.1205942488249974</v>
+        <v>0.008445049843204216</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.01704576668710548</v>
+        <v>0.02109884587391223</v>
       </c>
     </row>
     <row r="3">
@@ -2771,55 +2771,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.5421497698657863</v>
+        <v>0.6052162923090986</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.4151429783731446</v>
+        <v>-0.1537653620292601</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.4018148723993666</v>
+        <v>-0.1454882728563662</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.5490318922553734</v>
+        <v>-0.391104686078669</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9098819379908119</v>
+        <v>0.9651670731301777</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03778884491767613</v>
+        <v>0.02189821412343239</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03787345498271118</v>
+        <v>0.02116436651336019</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2301782790609064</v>
+        <v>0.1075106301710595</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2264352361051738</v>
+        <v>0.100392341813964</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.03882601319489151</v>
+        <v>-0.02582080129311597</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.03864526987692174</v>
+        <v>-0.02640787346263774</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2172948544401279</v>
+        <v>0.09899895526937261</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2135337740845544</v>
+        <v>0.09195192294811576</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.03201328201338007</v>
+        <v>-0.005119990743498363</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0328258624092044</v>
+        <v>0.01199051450295505</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.0237062193131504</v>
+        <v>0.02123948133095921</v>
       </c>
     </row>
     <row r="4">
@@ -2829,55 +2829,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5670590147464997</v>
+        <v>-0.1578358643260293</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.4151429783731446</v>
+        <v>-0.1537653620292601</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8079688713323099</v>
+        <v>0.4529193481085851</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7056802624381007</v>
+        <v>0.1517293677411556</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.395918552233695</v>
+        <v>-0.1307495170314417</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.008412173814428259</v>
+        <v>0.004207763896027716</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.007932935706425738</v>
+        <v>0.003834954616090164</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.04786130376546804</v>
+        <v>-0.07458856564176659</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.04911434213698183</v>
+        <v>-0.07046167977540861</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.002653280595499959</v>
+        <v>0.01248243162164915</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.003254533094766197</v>
+        <v>0.01710519257353606</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.04910470280271267</v>
+        <v>-0.07537356419465209</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.05034905349114259</v>
+        <v>-0.07178784226796249</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3406556471016648</v>
+        <v>0.5205553775438303</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.001870529627448011</v>
+        <v>0.4089489842085801</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2793745914621267</v>
+        <v>0.8030376825799879</v>
       </c>
     </row>
     <row r="5">
@@ -2887,55 +2887,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5598373462614268</v>
+        <v>-0.1502931514352879</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4018148723993666</v>
+        <v>-0.1454882728563662</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8079688713323099</v>
+        <v>0.4529193481085851</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7289264144823233</v>
+        <v>0.3714663569732348</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.4004099527217427</v>
+        <v>-0.1496616590975178</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.008883642745795039</v>
+        <v>0.02718834371047321</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.009553238901079456</v>
+        <v>0.02483093084874046</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.01084543295593506</v>
+        <v>0.01947467499728181</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.01124038349574497</v>
+        <v>0.01909646883288075</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004013866086611113</v>
+        <v>0.008551290059473081</v>
       </c>
       <c r="M5" t="n">
-        <v>0.003784897616836014</v>
+        <v>0.007611896068735143</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.01088924325053562</v>
+        <v>0.01789138543288174</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.01117514480216602</v>
+        <v>0.01564833024586526</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.2787433568514107</v>
+        <v>-0.5254619448909273</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.1080929040278991</v>
+        <v>-0.2551759687979044</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1141084438783591</v>
+        <v>0.2439338249200663</v>
       </c>
     </row>
     <row r="6">
@@ -2945,55 +2945,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692100806451468</v>
+        <v>-0.4012477434009393</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5490318922553734</v>
+        <v>-0.391104686078669</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7056802624381007</v>
+        <v>0.1517293677411556</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7289264144823233</v>
+        <v>0.3714663569732348</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.5476723223833594</v>
+        <v>-0.4084167095426288</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001275065907672057</v>
+        <v>0.0198455524096795</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0009906822905251609</v>
+        <v>0.0195590845187004</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.01350520231868173</v>
+        <v>0.07550562808178973</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.01373981472560285</v>
+        <v>0.07538651047430316</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002559122545756721</v>
+        <v>-0.004726654396362522</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002326493781731304</v>
+        <v>-0.00483547648628506</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.01329062417733071</v>
+        <v>0.07107413163198112</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.01350674418492096</v>
+        <v>0.07103020631391661</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.01292697243921179</v>
+        <v>-0.2109518107302445</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.09970895457070136</v>
+        <v>-0.1722908517892921</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.04697018934361992</v>
+        <v>-0.2499408301608111</v>
       </c>
     </row>
     <row r="7">
@@ -3003,55 +3003,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.5241907629105079</v>
+        <v>0.6089986870994867</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9098819379908119</v>
+        <v>0.9651670731301777</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.395918552233695</v>
+        <v>-0.1307495170314417</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.4004099527217427</v>
+        <v>-0.1496616590975178</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5476723223833594</v>
+        <v>-0.4084167095426288</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.031587539764673</v>
+        <v>-0.02526583940486136</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.03132012402827247</v>
+        <v>-0.02607046379973391</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.194292402100531</v>
+        <v>-0.1563521569590439</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.1975774392545799</v>
+        <v>-0.1625306234528149</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.03299936388869475</v>
+        <v>-0.02676667693744348</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.03280337917313661</v>
+        <v>-0.02741354253975723</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.1946003793451011</v>
+        <v>-0.1566147278812979</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.1979062783622375</v>
+        <v>-0.1627607090418378</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.006391245112363666</v>
+        <v>0.01855347247212008</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.07152722109181084</v>
+        <v>0.04044097881654244</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02043428162814625</v>
+        <v>0.05889113710987413</v>
       </c>
     </row>
     <row r="8">
@@ -3061,55 +3061,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.00063019971322716</v>
+        <v>-0.004232640698778331</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03778884491767613</v>
+        <v>0.02189821412343239</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.008412173814428259</v>
+        <v>0.004207763896027716</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.008883642745795039</v>
+        <v>0.02718834371047321</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001275065907672057</v>
+        <v>0.0198455524096795</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.031587539764673</v>
+        <v>-0.02526583940486136</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9969254808373268</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1778880152327062</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1764125307233835</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.04289805790585169</v>
+        <v>-0.01384390580696798</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.04225797328940766</v>
+        <v>-0.01023711864136016</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1606509652284165</v>
+        <v>0.1747920434275335</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1607715958463615</v>
+        <v>0.1737255255213389</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.0002947113615300593</v>
+        <v>-0.0220991507367451</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0003036857201429574</v>
+        <v>0.0118662616456648</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.0495693010698945</v>
+        <v>-0.0147272198205443</v>
       </c>
     </row>
     <row r="9">
@@ -3119,55 +3119,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0001782829608940185</v>
+        <v>-0.004416132210529955</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03787345498271118</v>
+        <v>0.02116436651336019</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.007932935706425738</v>
+        <v>0.003834954616090164</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.009553238901079456</v>
+        <v>0.02483093084874046</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0009906822905251609</v>
+        <v>0.0195590845187004</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.03132012402827247</v>
+        <v>-0.02607046379973391</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9969254808373268</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1781118112486999</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1777791578050404</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0428953814320998</v>
+        <v>-0.01121405763178514</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.04237614760923573</v>
+        <v>-0.00766826355115978</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1599641109553714</v>
+        <v>0.1752844121295991</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1604536328671998</v>
+        <v>0.1753413329322242</v>
       </c>
       <c r="P9" t="n">
-        <v>0.001618141409125537</v>
+        <v>-0.02021077975999663</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.001939945135960296</v>
+        <v>0.01282289166012415</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.04515876113928785</v>
+        <v>-0.01365985518792997</v>
       </c>
     </row>
     <row r="10">
@@ -3177,55 +3177,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.0220866110558817</v>
+        <v>-0.05330386435538793</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2301782790609064</v>
+        <v>0.1075106301710595</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.04786130376546804</v>
+        <v>-0.07458856564176659</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.01084543295593506</v>
+        <v>0.01947467499728181</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.01350520231868173</v>
+        <v>0.07550562808178973</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.194292402100531</v>
+        <v>-0.1563521569590439</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1778880152327062</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1781118112486999</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9966056155664207</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.009279674106381362</v>
+        <v>0.008828944319671905</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.009707136967591255</v>
+        <v>0.009314895229512683</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9706776205724464</v>
+        <v>0.9699226682316767</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9695100844200296</v>
+        <v>0.9667141366890815</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.0607027761467206</v>
+        <v>-0.08983132113863457</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.0906578831279594</v>
+        <v>-0.1084090646014301</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.1039851967048387</v>
+        <v>-0.1436032336998114</v>
       </c>
     </row>
     <row r="11">
@@ -3235,55 +3235,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02382112679428315</v>
+        <v>-0.054023826714858</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2264352361051738</v>
+        <v>0.100392341813964</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.04911434213698183</v>
+        <v>-0.07046167977540861</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.01124038349574497</v>
+        <v>0.01909646883288075</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.01373981472560285</v>
+        <v>0.07538651047430316</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1975774392545799</v>
+        <v>-0.1625306234528149</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1764125307233835</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1777791578050404</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9966056155664207</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.009675569737380988</v>
+        <v>0.01003407170017576</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.01013661336192944</v>
+        <v>0.01055885420729053</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9695907087740681</v>
+        <v>0.9668268015053798</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9706369394626907</v>
+        <v>0.9701863520604328</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.0621148800620477</v>
+        <v>-0.08553078651834244</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.08944613144911655</v>
+        <v>-0.1032444256578789</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.103526613124189</v>
+        <v>-0.1360674376502072</v>
       </c>
     </row>
     <row r="12">
@@ -3293,55 +3293,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.00063019971322716</v>
+        <v>-0.004232640698778331</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.03882601319489151</v>
+        <v>-0.02582080129311597</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.002653280595499959</v>
+        <v>0.01248243162164915</v>
       </c>
       <c r="E12" t="n">
-        <v>0.004013866086611113</v>
+        <v>0.008551290059473081</v>
       </c>
       <c r="F12" t="n">
-        <v>0.002559122545756721</v>
+        <v>-0.004726654396362522</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03299936388869475</v>
+        <v>-0.02676667693744348</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.04289805790585169</v>
+        <v>-0.01384390580696798</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.0428953814320998</v>
+        <v>-0.01121405763178514</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.009279674106381362</v>
+        <v>0.008828944319671905</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.009675569737380988</v>
+        <v>0.01003407170017576</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9969254808373268</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1778880152327062</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1764125307233835</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.01231767746807113</v>
+        <v>-0.003122087779200393</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01502653945814526</v>
+        <v>-0.01466818964971795</v>
       </c>
       <c r="R12" t="n">
-        <v>0.008037545769291303</v>
+        <v>0.01701807154878001</v>
       </c>
     </row>
     <row r="13">
@@ -3351,55 +3351,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0001782829608940185</v>
+        <v>-0.004416132210529955</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.03864526987692174</v>
+        <v>-0.02640787346263774</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.003254533094766197</v>
+        <v>0.01710519257353606</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003784897616836014</v>
+        <v>0.007611896068735143</v>
       </c>
       <c r="F13" t="n">
-        <v>0.002326493781731304</v>
+        <v>-0.00483547648628506</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.03280337917313661</v>
+        <v>-0.02741354253975723</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.04225797328940766</v>
+        <v>-0.01023711864136016</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.04237614760923573</v>
+        <v>-0.00766826355115978</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.009707136967591255</v>
+        <v>0.009314895229512683</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.01013661336192944</v>
+        <v>0.01055885420729053</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9969254808373268</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1781118112486999</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1777791578050404</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.01282555572957506</v>
+        <v>0.001838947027358413</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01509284879446856</v>
+        <v>-0.01348105050939897</v>
       </c>
       <c r="R13" t="n">
-        <v>0.007909332230194155</v>
+        <v>0.02164021536471094</v>
       </c>
     </row>
     <row r="14">
@@ -3409,55 +3409,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0220866110558817</v>
+        <v>-0.05330386435538793</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2172948544401279</v>
+        <v>0.09899895526937261</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.04910470280271267</v>
+        <v>-0.07537356419465209</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.01088924325053562</v>
+        <v>0.01789138543288174</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.01329062417733071</v>
+        <v>0.07107413163198112</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1946003793451011</v>
+        <v>-0.1566147278812979</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1606509652284165</v>
+        <v>0.1747920434275335</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1599641109553714</v>
+        <v>0.1752844121295991</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9706776205724464</v>
+        <v>0.9699226682316767</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9695907087740681</v>
+        <v>0.9668268015053798</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1778880152327062</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1781118112486999</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9966056155664207</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.06281470259382184</v>
+        <v>-0.09037917581332673</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.08508271108624274</v>
+        <v>-0.1115149144946447</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.1026404825093185</v>
+        <v>-0.1351689414390977</v>
       </c>
     </row>
     <row r="15">
@@ -3467,55 +3467,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02382112679428315</v>
+        <v>-0.054023826714858</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2135337740845544</v>
+        <v>0.09195192294811576</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.05034905349114259</v>
+        <v>-0.07178784226796249</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.01117514480216602</v>
+        <v>0.01564833024586526</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.01350674418492096</v>
+        <v>0.07103020631391661</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.1979062783622375</v>
+        <v>-0.1627607090418378</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1607715958463615</v>
+        <v>0.1737255255213389</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1604536328671998</v>
+        <v>0.1753413329322242</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9695100844200296</v>
+        <v>0.9667141366890815</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9706369394626907</v>
+        <v>0.9701863520604328</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1764125307233835</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1777791578050404</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9966056155664207</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.06437996647699736</v>
+        <v>-0.08484940216141092</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.08413472641851127</v>
+        <v>-0.1059959356059251</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.1020413442389173</v>
+        <v>-0.1282905913559933</v>
       </c>
     </row>
     <row r="16">
@@ -3525,55 +3525,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03278743538109485</v>
+        <v>-0.003594336843539836</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.03201328201338007</v>
+        <v>-0.005119990743498363</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3406556471016648</v>
+        <v>0.5205553775438303</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.2787433568514107</v>
+        <v>-0.5254619448909273</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.01292697243921179</v>
+        <v>-0.2109518107302445</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.006391245112363666</v>
+        <v>0.01855347247212008</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.0002947113615300593</v>
+        <v>-0.0220991507367451</v>
       </c>
       <c r="I16" t="n">
-        <v>0.001618141409125537</v>
+        <v>-0.02021077975999663</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.0607027761467206</v>
+        <v>-0.08983132113863457</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0621148800620477</v>
+        <v>-0.08553078651834244</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.01231767746807113</v>
+        <v>-0.003122087779200393</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.01282555572957506</v>
+        <v>0.001838947027358413</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.06281470259382184</v>
+        <v>-0.09037917581332673</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.06437996647699736</v>
+        <v>-0.08484940216141092</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.1753447427527878</v>
+        <v>0.6346432696790655</v>
       </c>
       <c r="R16" t="n">
-        <v>0.2732713364047973</v>
+        <v>0.5327350036753699</v>
       </c>
     </row>
     <row r="17">
@@ -3583,55 +3583,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1205942488249974</v>
+        <v>0.008445049843204216</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0328258624092044</v>
+        <v>0.01199051450295505</v>
       </c>
       <c r="D17" t="n">
-        <v>0.001870529627448011</v>
+        <v>0.4089489842085801</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.1080929040278991</v>
+        <v>-0.2551759687979044</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.09970895457070136</v>
+        <v>-0.1722908517892921</v>
       </c>
       <c r="G17" t="n">
-        <v>0.07152722109181084</v>
+        <v>0.04044097881654244</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0003036857201429574</v>
+        <v>0.0118662616456648</v>
       </c>
       <c r="I17" t="n">
-        <v>0.001939945135960296</v>
+        <v>0.01282289166012415</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.0906578831279594</v>
+        <v>-0.1084090646014301</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.08944613144911655</v>
+        <v>-0.1032444256578789</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01502653945814526</v>
+        <v>-0.01466818964971795</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01509284879446856</v>
+        <v>-0.01348105050939897</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.08508271108624274</v>
+        <v>-0.1115149144946447</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.08413472641851127</v>
+        <v>-0.1059959356059251</v>
       </c>
       <c r="P17" t="n">
-        <v>0.1753447427527878</v>
+        <v>0.6346432696790655</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3336034341496384</v>
+        <v>0.4845953049480962</v>
       </c>
     </row>
     <row r="18">
@@ -3641,52 +3641,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01704576668710548</v>
+        <v>0.02109884587391223</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0237062193131504</v>
+        <v>0.02123948133095921</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2793745914621267</v>
+        <v>0.8030376825799879</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1141084438783591</v>
+        <v>0.2439338249200663</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.04697018934361992</v>
+        <v>-0.2499408301608111</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02043428162814625</v>
+        <v>0.05889113710987413</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.0495693010698945</v>
+        <v>-0.0147272198205443</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.04515876113928785</v>
+        <v>-0.01365985518792997</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.1039851967048387</v>
+        <v>-0.1436032336998114</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.103526613124189</v>
+        <v>-0.1360674376502072</v>
       </c>
       <c r="L18" t="n">
-        <v>0.008037545769291303</v>
+        <v>0.01701807154878001</v>
       </c>
       <c r="M18" t="n">
-        <v>0.007909332230194155</v>
+        <v>0.02164021536471094</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.1026404825093185</v>
+        <v>-0.1351689414390977</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.1020413442389173</v>
+        <v>-0.1282905913559933</v>
       </c>
       <c r="P18" t="n">
-        <v>0.2732713364047973</v>
+        <v>0.5327350036753699</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3336034341496384</v>
+        <v>0.4845953049480962</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
